--- a/va_facility_data_2025-02-20/Perry VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Perry%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Perry VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Perry%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R61cc009ebc604a0aa1569c749d782c29"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6591bab6913641b4aa6aae7c2950f0c7"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re069a165c2c2474b993eee4036b7ecf3"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2ed1282835d345b5afcd7b4b19c4d252"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1f7cb09ee1de4226a1419c4fdadb2854"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R29d1458b011d400d91b6409a1c38f509"/>
   </x:sheets>
 </x:workbook>
 </file>
